--- a/public/templates/entrust_import_template.xlsx
+++ b/public/templates/entrust_import_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edianzu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heqq/workspace/assetmgnt/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GPS状态(1为有效,2为无效)</t>
+    <t>GPS状态(1为有效,0为无效)</t>
     <rPh sb="3" eb="4">
       <t>zhuang tai</t>
     </rPh>
@@ -526,7 +526,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
